--- a/Calcolautor excel.xlsx
+++ b/Calcolautor excel.xlsx
@@ -650,6 +650,30 @@
         <f>B3/B2</f>
         <v>1.5</v>
       </c>
+      <c r="H11">
+        <f>B1/B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>B2/B4</f>
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <f>B3/B4</f>
+        <v>0.75</v>
+      </c>
+      <c r="K11">
+        <f>B4/B1</f>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f>B4/B2</f>
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <f>B4/B3</f>
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -679,6 +703,30 @@
         <f>B1^B3</f>
         <v>1</v>
       </c>
+      <c r="H12">
+        <f>B1^B4</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>B2^B4</f>
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <f>B3^B4</f>
+        <v>81</v>
+      </c>
+      <c r="K12">
+        <f>B4^B3</f>
+        <v>64</v>
+      </c>
+      <c r="L12">
+        <f>B4^B2</f>
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <f>B4^B1</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -696,6 +744,10 @@
         <f>B3^2</f>
         <v>9</v>
       </c>
+      <c r="E13">
+        <f>B4^2</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -712,6 +764,10 @@
       <c r="D14">
         <f>B3^3</f>
         <v>27</v>
+      </c>
+      <c r="E14">
+        <f>B4^3</f>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:13">

--- a/Calcolautor excel.xlsx
+++ b/Calcolautor excel.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -748,6 +748,30 @@
         <f>B4^2</f>
         <v>16</v>
       </c>
+      <c r="F13">
+        <f>(B1+B2)^2</f>
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f>(B1+B3)^2</f>
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <f>(B1+B4)^2</f>
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <f>(B2+B3)^2</f>
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <f>(B2+B4)^2</f>
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <f>(B3+B4)^2</f>
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -769,6 +793,30 @@
         <f>B4^3</f>
         <v>64</v>
       </c>
+      <c r="F14">
+        <f>(B1+B2)^3</f>
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <f>(B1+B3)^3</f>
+        <v>64</v>
+      </c>
+      <c r="H14">
+        <f>(B1+B4)^3</f>
+        <v>125</v>
+      </c>
+      <c r="I14">
+        <f>(B2+B3)^3</f>
+        <v>125</v>
+      </c>
+      <c r="J14">
+        <f>(B2+B4)^3</f>
+        <v>216</v>
+      </c>
+      <c r="K14">
+        <f>(B3+B4)^3</f>
+        <v>343</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
@@ -789,6 +837,30 @@
       <c r="E15">
         <f>SQRT(B4)</f>
         <v>2</v>
+      </c>
+      <c r="F15">
+        <f>SQRT(B1+B2)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="G15">
+        <f>SQRT(B1+B3)</f>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>SQRT(B1+B4)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I15">
+        <f>SQRT(B2+B3)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J15">
+        <f>SQRT(B2+B4)</f>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="K15">
+        <f>SQRT(B3+B4)</f>
+        <v>2.6457513110645907</v>
       </c>
     </row>
   </sheetData>

--- a/Calcolautor excel.xlsx
+++ b/Calcolautor excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>a</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Rettangolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Quadrato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Cerchio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Triangolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserisci i termini su B1 e B2 </t>
+  </si>
+  <si>
+    <t>per il calcolo delle aree.</t>
   </si>
 </sst>
 </file>
@@ -426,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -861,6 +879,48 @@
       <c r="K15">
         <f>SQRT(B3+B4)</f>
         <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>B1*B2</f>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f>B1^2</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>B1^2*PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>(B1*B2)/2</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Calcolautor excel.xlsx
+++ b/Calcolautor excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>per il calcolo delle aree.</t>
+  </si>
+  <si>
+    <t>Percentuale considerando 100 come valore massimo</t>
+  </si>
+  <si>
+    <t>Percentuale considerando 1000 come valore massimo</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -893,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -905,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -914,13 +920,55 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="C19">
         <f>(B1*B2)/2</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <f>B1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <f>B2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="H20">
+        <f>B3/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="I20">
+        <f>B4/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f>B1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G21">
+        <f>B2/1000</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H21">
+        <f>B3/1000</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <f>B4/1000</f>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
